--- a/HID Message Data Structures.xlsx
+++ b/HID Message Data Structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy-daily\Documents\GitHub\SSS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851194A-6503-4CEB-8A6B-76CF6515CF3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2460AD-AC7F-4CEC-9B9A-5BBD51E6D0F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8EB730A1-2A75-43B6-8245-2760B3944517}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
   <si>
     <t>Byte</t>
   </si>
@@ -249,63 +249,6 @@
     <t>Wiper Position of Potentiometer U16</t>
   </si>
   <si>
-    <t>INFO 51, Dig. Pot.  1 Terminal Connect, Port  1 (J24- 1) = 3, 3 (TCON_WIPER_AND_B)</t>
-  </si>
-  <si>
-    <t>INFO 52, Dig. Pot.  2 Terminal Connect, Port  2 (J24- 2) = 3, 3 (TCON_WIPER_AND_B)</t>
-  </si>
-  <si>
-    <t>INFO 53, Dig. Pot.  3 Terminal Connect, Port  3 (J24- 3) = 3, 3 (TCON_WIPER_AND_B)</t>
-  </si>
-  <si>
-    <t>INFO 54, Dig. Pot.  4 Terminal Connect, Port  4 (J24- 4) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 55, Dig. Pot.  5 Terminal Connect, Port  5 (J24- 5) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 56, Dig. Pot.  6 Terminal Connect, Port  6 (J24- 6) = 3, 3 (TCON_WIPER_AND_B)</t>
-  </si>
-  <si>
-    <t>INFO 57, Dig. Pot.  7 Terminal Connect, Port  7 (J24- 7) = 3, 3 (TCON_WIPER_AND_B)</t>
-  </si>
-  <si>
-    <t>INFO 58, Dig. Pot.  8 Terminal Connect, Port  8 (J24- 8) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 59, Dig. Pot.  9 Terminal Connect, Port  9 (J24- 9) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 60, Dig. Pot. 10 Terminal Connect, Port 10 (J24-10) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 61, Dig. Pot. 11 Terminal Connect, Port 11 (J24-11) = 0, 0 Nothing connected</t>
-  </si>
-  <si>
-    <t>INFO 62, Dig. Pot. 12 Terminal Connect, Port 12 (J24-12) = 0, 0 Nothing connected</t>
-  </si>
-  <si>
-    <t>INFO 63, Dig. Pot. 13 Terminal Connect, Port 13 (J18-11) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 64, Dig. Pot. 14 Terminal Connect, Port 14 (J18-12) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 65, Dig. Pot. 15 Terminal Connect, Port 15 (J24-15) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 66, Dig. Pot. 16 Terminal Connect, Port 16 (J24-16) = 0, 0 Nothing connected</t>
-  </si>
-  <si>
-    <t>INFO 78, Dig. Pot. 28 Terminal Connect, Port 28 (J18-12) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 79, Dig. Pot. 29 Terminal Connect, Port 29 (J18-13) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
-    <t>INFO 80, Dig. Pot. 30 Terminal Connect, Port 30 (J18-14) = 7, 7 (TCON_CONNECT_ALL)</t>
-  </si>
-  <si>
     <t>SSS2 Setting</t>
   </si>
   <si>
@@ -726,9 +669,6 @@
     <t>NetStatus</t>
   </si>
   <si>
-    <t>printLIN (true/false)</t>
-  </si>
-  <si>
     <t>sendLIN(true/false)</t>
   </si>
   <si>
@@ -748,6 +688,84 @@
   </si>
   <si>
     <t>currentKnob</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  1 Terminal Connect, Port  1 (J24- 1)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  2 Terminal Connect, Port  2 (J24- 2)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  3 Terminal Connect, Port  3 (J24- 3)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  4 Terminal Connect, Port  4 (J24- 4)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  5 Terminal Connect, Port  5 (J24- 5)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  6 Terminal Connect, Port  6 (J24- 6)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  7 Terminal Connect, Port  7 (J24- 7)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  8 Terminal Connect, Port  8 (J24- 8)</t>
+  </si>
+  <si>
+    <t>Dig. Pot.  9 Terminal Connect, Port  9 (J24- 9)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 10 Terminal Connect, Port 10 (J24-10)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 11 Terminal Connect, Port 11 (J24-11)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 12 Terminal Connect, Port 12 (J24-12)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 13 Terminal Connect, Port 13 (J18-11)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 14 Terminal Connect, Port 14 (J18-12)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 15 Terminal Connect, Port 15 (J24-15)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 16 Terminal Connect, Port 16 (J24-16)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 28 Terminal Connect, Port 28 (J18-12)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 29 Terminal Connect, Port 29 (J18-13)</t>
+  </si>
+  <si>
+    <t>Dig. Pot. 30 Terminal Connect, Port 30 (J18-14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN0 BAUD </t>
+  </si>
+  <si>
+    <t>Analog 0 Out</t>
+  </si>
+  <si>
+    <t>Analog 1 Out</t>
+  </si>
+  <si>
+    <t>Analog 2</t>
+  </si>
+  <si>
+    <t>Analog 3 Out</t>
+  </si>
+  <si>
+    <t>Analog 4 Out</t>
+  </si>
+  <si>
+    <t>Analog 5 Out</t>
   </si>
 </sst>
 </file>
@@ -827,9 +845,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -838,9 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,10 +860,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,7 +1191,7 @@
   <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B16" sqref="B16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:AG2" si="0">C2+1</f>
+        <f t="shared" ref="D2:Q2" si="0">C2+1</f>
         <v>2</v>
       </c>
       <c r="E2" s="2">
@@ -1253,25 +1271,25 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1286,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:AG5" si="1">C5+1</f>
+        <f t="shared" ref="D5:Q5" si="1">C5+1</f>
         <v>18</v>
       </c>
       <c r="E5" s="2">
@@ -1343,24 +1361,24 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1375,7 +1393,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:AG8" si="2">C8+1</f>
+        <f t="shared" ref="D8:Q8" si="2">C8+1</f>
         <v>34</v>
       </c>
       <c r="E8" s="2">
@@ -1432,24 +1450,24 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1464,7 +1482,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D10:AG11" si="3">C11+1</f>
+        <f t="shared" ref="D11:Q11" si="3">C11+1</f>
         <v>50</v>
       </c>
       <c r="E11" s="2">
@@ -1521,26 +1539,26 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1567,7 +1585,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1582,7 +1600,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1609,20 +1627,20 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1636,7 +1654,7 @@
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1690,499 +1708,499 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <f>B2+1</f>
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:Q2" si="0">C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>B2+16</f>
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>B5+1</f>
         <v>17</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:Q5" si="1">C5+1</f>
         <v>18</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <f>B5+16</f>
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <f>B8+1</f>
         <v>33</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" ref="D8:Q8" si="2">C8+1</f>
         <v>34</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="7">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="6" t="s">
-        <v>153</v>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <f>B8+16</f>
         <v>48</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <f>B11+1</f>
         <v>49</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:Q11" si="3">C11+1</f>
         <v>50</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="P12" s="8" t="s">
+      <c r="M12" s="11"/>
+      <c r="N12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2191,10 +2209,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -2214,7 +2232,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,13 +2450,13 @@
         <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,13 +2464,13 @@
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,13 +2478,13 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,13 +2492,13 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,13 +2506,13 @@
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,13 +2520,13 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,13 +2534,13 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,13 +2548,13 @@
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,10 +2565,10 @@
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,10 +2579,10 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,10 +2593,10 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,10 +2607,10 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,10 +2621,10 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,10 +2635,10 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,10 +2649,10 @@
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,10 +2663,10 @@
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,13 +2674,13 @@
         <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2670,13 +2688,13 @@
         <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,13 +2702,13 @@
         <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,13 +2716,13 @@
         <v>36</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,10 +2733,10 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,10 +2747,10 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,10 +2761,10 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,10 +2775,10 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,10 +2789,10 @@
         <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,10 +2803,10 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,10 +2817,10 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,10 +2831,10 @@
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,10 +2845,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2859,10 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,10 +2873,10 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,10 +2887,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,7 +2904,7 @@
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,10 +2915,10 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,10 +2929,10 @@
         <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,10 +2943,10 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,10 +2957,10 @@
         <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,10 +2971,10 @@
         <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,10 +2985,10 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,10 +2999,10 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,10 +3013,10 @@
         <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,10 +3027,10 @@
         <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,7 +3044,7 @@
         <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,7 +3058,7 @@
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,7 +3072,7 @@
         <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,13 +3080,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,13 +3094,13 @@
         <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,13 +3108,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,13 +3122,13 @@
         <v>85</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,10 +3139,10 @@
         <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,13 +3150,13 @@
         <v>87</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,13 +3164,13 @@
         <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D84" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,10 +3181,10 @@
         <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,10 +3195,10 @@
         <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,10 +3209,10 @@
         <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,10 +3223,10 @@
         <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,10 +3237,10 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,14 +3251,24 @@
         <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -3250,16 +3278,6 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3271,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF52B80C-E677-48BE-9EAF-D32B6CF5339A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,495 +3322,495 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <f>B2+1</f>
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:Q2" si="0">C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>203</v>
+      <c r="B3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>B2+16</f>
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>B5+1</f>
         <v>17</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:Q5" si="1">C5+1</f>
         <v>18</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <f>B5+16</f>
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <f>B8+1</f>
         <v>33</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" ref="D8:Q8" si="2">C8+1</f>
         <v>34</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="7">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <f>B8+16</f>
         <v>48</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <f>B11+1</f>
         <v>49</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:Q11" si="3">C11+1</f>
         <v>50</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="12"/>
       <c r="M12" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="O12" s="13"/>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3801,10 +3819,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -3824,7 +3842,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,7 +3856,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,7 +3870,7 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,7 +3884,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,7 +3898,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3912,7 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,7 +3926,7 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,7 +3940,7 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,7 +3954,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,7 +3968,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,7 +3982,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,7 +4010,7 @@
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,7 +4024,7 @@
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,7 +4038,7 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,7 +4052,7 @@
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,7 +4066,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,7 +4080,7 @@
         <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,18 +4094,18 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,10 +4113,10 @@
         <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4106,10 +4124,10 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,14 +4135,15 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="C12:F12"/>
@@ -4135,7 +4154,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4147,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B7D-DF26-4857-9B9A-8D2F5EA0B6B1}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4180,419 +4198,433 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <f>B2+1</f>
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:Q2" si="0">C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <f>B2+16</f>
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>B5+1</f>
         <v>17</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:Q5" si="1">C5+1</f>
         <v>18</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="B6" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <f>B5+16</f>
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <f>B8+1</f>
         <v>33</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" ref="D8:Q8" si="2">C8+1</f>
         <v>34</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="7">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <f>B8+16</f>
         <v>48</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <f>B11+1</f>
         <v>49</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:Q11" si="3">C11+1</f>
         <v>50</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="2"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4601,10 +4633,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -4724,7 +4756,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -4739,6 +4774,8 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
